--- a/patient_data/patient_19.xlsx
+++ b/patient_data/patient_19.xlsx
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -829,22 +829,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1128,19 +1128,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1913,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2067,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
